--- a/line_plot/test_data/recall#0.05.xlsx
+++ b/line_plot/test_data/recall#0.05.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,6 +454,12 @@
       <c r="F1" s="1" t="n">
         <v>0.25</v>
       </c>
+      <c r="G1" s="1" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>0.35</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -462,19 +468,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.4453308538132144</v>
+        <v>0.4044619418725087</v>
       </c>
       <c r="C2" t="n">
-        <v>0.46669954170748</v>
+        <v>0.4159668295294935</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4649760088842537</v>
+        <v>0.4414117181415101</v>
       </c>
       <c r="E2" t="n">
-        <v>0.4839199854330249</v>
+        <v>0.4356936153338234</v>
       </c>
       <c r="F2" t="n">
-        <v>0.4966996295655911</v>
+        <v>0.4454010018315387</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.3671376626788714</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.3638034838656209</v>
       </c>
     </row>
     <row r="3">
@@ -484,19 +496,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.500009923076137</v>
+        <v>0.4523568738504514</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5309350160414972</v>
+        <v>0.4748550178292386</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5406094937529716</v>
+        <v>0.48602038602438</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5461336200393403</v>
+        <v>0.4896868373907837</v>
       </c>
       <c r="F3" t="n">
-        <v>0.579247203253102</v>
+        <v>0.5288019356809712</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.3728648875217569</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.3773417900329287</v>
       </c>
     </row>
     <row r="4">
@@ -506,19 +524,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.4865352486907964</v>
+        <v>0.4427843326910802</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5091406439138926</v>
+        <v>0.4638516496531658</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5226290063988592</v>
+        <v>0.4777790049790058</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5278815072985223</v>
+        <v>0.4834566413268452</v>
       </c>
       <c r="F4" t="n">
-        <v>0.5256235340639608</v>
+        <v>0.4922848534193663</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.3746364440425082</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.3765076351868119</v>
       </c>
     </row>
   </sheetData>
